--- a/Test Case Леонов2.xlsx
+++ b/Test Case Леонов2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreyleonov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADECFCEE-FE24-2A47-A5E1-66C9325E9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{623CEF57-9AD5-BB4F-B286-4FB3353FE2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30660" yWindow="9860" windowWidth="38140" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Наименование:</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Ввод данных для аутентификации и нажать на кнопку далее</t>
   </si>
   <si>
-    <t>Нажать на кнопку назад из окна аутентификации</t>
-  </si>
-  <si>
     <t>Открылось окно авторизации</t>
   </si>
   <si>
@@ -299,6 +296,12 @@
   </si>
   <si>
     <t>Открылось окно tasks</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку назад из окна tasks</t>
+  </si>
+  <si>
+    <t>Откроется окно авторизации</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1192,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>26</v>
@@ -1200,21 +1203,21 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42">
+    <row r="15" spans="1:8" ht="28">
       <c r="A15" s="28">
         <v>4</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>26</v>
@@ -1222,7 +1225,7 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="33"/>
     </row>
